--- a/doc/04_DB定義書_B2_0616_ver3.xlsx
+++ b/doc/04_DB定義書_B2_0616_ver3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A9D6D1-903F-4170-A3A5-901FDA1CBB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DEC32E-C5DE-4C21-AC51-32FAB15AEC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="865" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16635" yWindow="3300" windowWidth="7230" windowHeight="5490" tabRatio="865" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改定履歴" sheetId="20" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="315">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -396,10 +396,6 @@
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(〇)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1347,40 +1343,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.My資格-item_idを削除
-2.資格マスタ-「難易度」を追加
-3.目標理解度-item_idを追加
-4.「本日の目標」トランザクション-新規作成</t>
-    <rPh sb="15" eb="17">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シカク</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>ナンイド</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="37" eb="42">
-      <t>モクヒョウリカイド</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ホンジツ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="72" eb="76">
-      <t>シンキサクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>本日の目標トランザクション</t>
   </si>
   <si>
@@ -1465,6 +1427,90 @@
     </rPh>
     <rPh sb="18" eb="21">
       <t>タッセイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザが資格を登録したときに対応する項目をまとめて登録</t>
+    <rPh sb="4" eb="6">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.My資格-item_idを削除
+2.資格マスタ-「難易度」を追加
+3.目標理解度-item_idを追加
+4.目標理解度-tar_undにデフォルト値を追加
+5.目標理解度-備考を追加
+6.「本日の目標」トランザクション-新規作成
+7.id,_id-AI,NOT NULLを修正
+8.テーブルカラム一覧を修正</t>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="37" eb="42">
+      <t>モクヒョウリカイド</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="56" eb="61">
+      <t>モクヒョウリカイド</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="82" eb="87">
+      <t>モクヒョウリカイド</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ホンジツ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="112" eb="116">
+      <t>シンキサクセイ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1766,7 +1812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1869,6 +1915,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2394,7 +2446,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2405,16 +2457,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B1" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>290</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
@@ -2425,10 +2477,10 @@
         <v>44721</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
@@ -2439,10 +2491,10 @@
         <v>44722</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" thickBot="1" x14ac:dyDescent="0.2">
@@ -2453,10 +2505,10 @@
         <v>44725</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
@@ -2467,13 +2519,13 @@
         <v>44726</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="114.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33">
         <v>3</v>
       </c>
@@ -2481,10 +2533,10 @@
         <v>44728</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
@@ -2556,7 +2608,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -2576,7 +2628,7 @@
         <v>73</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -2630,19 +2682,19 @@
         <v>81</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2656,13 +2708,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>107</v>
-      </c>
       <c r="D11" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="23">
         <v>5</v>
@@ -2670,11 +2722,11 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I11" s="23"/>
       <c r="J11" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
@@ -2686,13 +2738,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="3">
         <v>5</v>
@@ -2700,11 +2752,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -2716,13 +2768,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="23" t="s">
         <v>87</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>88</v>
       </c>
       <c r="E13" s="3">
         <v>5</v>
@@ -2730,11 +2782,11 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
@@ -2746,13 +2798,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>143</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>144</v>
       </c>
       <c r="E14" s="21">
         <v>1</v>
@@ -2760,7 +2812,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
@@ -3041,7 +3093,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3055,7 +3107,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3073,7 +3125,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3101,7 +3153,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -3132,6 +3184,14 @@
         <v>44728</v>
       </c>
     </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B6" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>313</v>
+      </c>
+    </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
@@ -3176,23 +3236,21 @@
         <v>81</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
@@ -3205,13 +3263,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="3">
         <v>5</v>
@@ -3219,11 +3277,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3235,13 +3293,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="24">
         <v>5</v>
@@ -3249,11 +3307,11 @@
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L12" s="26" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3265,13 +3323,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="E13" s="3">
         <v>5</v>
@@ -3279,11 +3337,11 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -3295,23 +3353,23 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3323,13 +3381,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -3337,11 +3395,13 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
       <c r="J15" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -3602,7 +3662,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3616,7 +3676,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3634,7 +3694,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3656,7 +3716,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -3670,7 +3730,7 @@
         <v>72</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -3682,12 +3742,20 @@
         <v>73</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B6" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -3733,7 +3801,7 @@
         <v>81</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>82</v>
@@ -3760,13 +3828,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E11" s="3">
         <v>5</v>
@@ -3778,7 +3846,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3790,13 +3858,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E12" s="3">
         <v>5</v>
@@ -3808,7 +3876,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3820,10 +3888,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>82</v>
@@ -3840,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -4137,7 +4205,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4151,7 +4219,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4197,7 +4265,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -4210,7 +4278,9 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
@@ -4222,7 +4292,9 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7">
+        <v>44728</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -4268,23 +4340,21 @@
         <v>81</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
@@ -4297,27 +4367,23 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>89</v>
-      </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4329,13 +4395,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -4343,11 +4409,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4359,13 +4425,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E13" s="3">
         <v>10</v>
@@ -4373,7 +4439,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -4672,7 +4738,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4732,7 +4798,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -4760,7 +4826,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="7">
-        <v>44725</v>
+        <v>44728</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -4807,23 +4873,21 @@
         <v>81</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
@@ -4836,13 +4900,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E11" s="3">
         <v>5</v>
@@ -4850,11 +4914,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4866,27 +4930,23 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4898,13 +4958,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E13" s="3">
         <v>5</v>
@@ -4912,11 +4972,11 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -4928,13 +4988,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E14" s="3">
         <v>200</v>
@@ -4954,19 +5014,19 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -5229,7 +5289,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -5289,7 +5349,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -5311,7 +5371,7 @@
         <v>73</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -5364,22 +5424,22 @@
         <v>81</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -5393,27 +5453,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
         <v>83</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -5425,13 +5485,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -5439,7 +5499,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -5756,7 +5816,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -5782,10 +5842,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>172</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -5804,14 +5864,14 @@
     </row>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -5825,29 +5885,29 @@
     </row>
     <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>176</v>
-      </c>
       <c r="E3" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>178</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
@@ -5862,26 +5922,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="13" t="s">
         <v>181</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>182</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="13">
         <v>1</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -5896,10 +5956,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>185</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -5908,10 +5968,10 @@
         <v>2</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -5926,10 +5986,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>187</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>188</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -5965,7 +6025,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="13"/>
@@ -5985,22 +6045,22 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -6018,19 +6078,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="F10" s="13" t="s">
         <v>196</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>197</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -6048,19 +6108,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D11" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="F11" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>200</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -6093,13 +6153,13 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="13"/>
       <c r="D13" s="9"/>
       <c r="G13" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="13"/>
@@ -6113,31 +6173,31 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="I14" s="12" t="s">
+      <c r="J14" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="K14" s="12" t="s">
         <v>205</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>206</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
@@ -6150,19 +6210,19 @@
         <v>1</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C15" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>207</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>208</v>
       </c>
       <c r="G15" s="13">
         <v>1</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I15" s="15">
         <v>44835</v>
@@ -6180,19 +6240,19 @@
         <v>2</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>210</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>211</v>
       </c>
       <c r="G16" s="13">
         <v>2</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -6212,7 +6272,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I17" s="15">
         <v>45017</v>
@@ -6227,7 +6287,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="13"/>
@@ -6247,20 +6307,20 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="13"/>
@@ -6278,26 +6338,26 @@
         <v>1</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D20" s="13">
         <v>10</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H20" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="I20" s="12" t="s">
         <v>216</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>217</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -6311,10 +6371,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D21" s="13">
         <v>5</v>
@@ -6324,13 +6384,13 @@
         <v>1</v>
       </c>
       <c r="G21" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="I21" s="13" t="s">
         <v>219</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>220</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -6344,10 +6404,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D22" s="13">
         <v>3</v>
@@ -6357,13 +6417,13 @@
         <v>2</v>
       </c>
       <c r="G22" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="I22" s="13" t="s">
         <v>222</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>223</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -6374,7 +6434,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -6384,13 +6444,13 @@
         <v>3</v>
       </c>
       <c r="G23" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="I23" s="13" t="s">
         <v>225</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>226</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -6405,10 +6465,10 @@
         <v>101</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D24" s="13">
         <v>10</v>
@@ -6431,10 +6491,10 @@
         <v>102</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D25" s="13">
         <v>3</v>
@@ -6454,7 +6514,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -6492,7 +6552,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -6501,7 +6561,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -6514,38 +6574,38 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="18" t="s">
         <v>81</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
@@ -6556,13 +6616,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E30" s="13" t="b">
         <v>1</v>
@@ -6572,13 +6632,13 @@
         <v>1</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K30" s="19">
         <v>44562</v>
@@ -6595,13 +6655,13 @@
         <v>2</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E31" s="13" t="b">
         <v>1</v>
@@ -6611,13 +6671,13 @@
         <v>2</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K31" s="19">
         <v>44563</v>
@@ -6634,13 +6694,13 @@
         <v>3</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E32" s="13" t="b">
         <v>0</v>
@@ -6650,13 +6710,13 @@
         <v>3</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K32" s="19">
         <v>44564</v>
@@ -6673,13 +6733,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E33" s="13" t="b">
         <v>1</v>
@@ -6697,7 +6757,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -6735,7 +6795,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -6755,16 +6815,16 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B37" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="D37" s="12" t="s">
         <v>236</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>237</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
@@ -6784,13 +6844,13 @@
         <v>1</v>
       </c>
       <c r="B38" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>238</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>239</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -6810,13 +6870,13 @@
         <v>2</v>
       </c>
       <c r="B39" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>241</v>
-      </c>
       <c r="D39" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
@@ -6836,13 +6896,13 @@
         <v>3</v>
       </c>
       <c r="B40" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>243</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>244</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
@@ -6862,13 +6922,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>246</v>
-      </c>
       <c r="D41" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
@@ -6921,7 +6981,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -6941,22 +7001,22 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C45" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="D45" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E45" s="12" t="s">
+      <c r="F45" s="12" t="s">
         <v>249</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>250</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
@@ -6974,16 +7034,16 @@
         <v>1</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D46" s="13">
         <v>1</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F46" s="17">
         <v>44718.413194444445</v>
@@ -7004,16 +7064,16 @@
         <v>2</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D47" s="13">
         <v>2</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F47" s="17">
         <v>44718.454861111109</v>
@@ -7034,10 +7094,10 @@
         <v>3</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
@@ -7058,10 +7118,10 @@
         <v>4</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
@@ -7097,7 +7157,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A51" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -7116,13 +7176,13 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A52" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B52" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C52" s="12" t="s">
         <v>256</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>257</v>
       </c>
       <c r="D52" s="9"/>
       <c r="F52" s="9"/>
@@ -7142,10 +7202,10 @@
         <v>1</v>
       </c>
       <c r="B53" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" s="13" t="s">
         <v>258</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>259</v>
       </c>
       <c r="D53" s="9"/>
       <c r="F53" s="9"/>
@@ -7165,10 +7225,10 @@
         <v>2</v>
       </c>
       <c r="B54" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C54" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="D54" s="9"/>
       <c r="F54" s="9"/>
@@ -7188,10 +7248,10 @@
         <v>3</v>
       </c>
       <c r="B55" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C55" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="D55" s="9"/>
       <c r="F55" s="9"/>
@@ -7211,10 +7271,10 @@
         <v>4</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D56" s="9"/>
       <c r="F56" s="9"/>
@@ -7234,7 +7294,7 @@
         <v>5</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="9"/>
@@ -7255,7 +7315,7 @@
         <v>6</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="9"/>
@@ -7277,7 +7337,7 @@
         <v>7</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="9"/>
@@ -7384,7 +7444,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -7805,7 +7865,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -8125,7 +8185,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>64</v>
@@ -8148,19 +8208,19 @@
         <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
@@ -8354,8 +8414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8414,7 +8474,9 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
@@ -8426,7 +8488,9 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7">
+        <v>44728</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -8486,12 +8550,10 @@
       <c r="G10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -8503,27 +8565,23 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L11" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -8535,13 +8593,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -8553,7 +8611,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L12" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -8565,13 +8623,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" s="3">
         <v>30</v>
@@ -8583,7 +8641,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L13" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -8595,13 +8653,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
@@ -8897,7 +8955,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="L30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -8911,7 +8969,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8929,7 +8987,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -8957,7 +9015,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -8979,7 +9037,7 @@
         <v>73</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -9035,20 +9093,18 @@
         <v>81</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
@@ -9061,13 +9117,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="E11" s="25">
         <v>5</v>
@@ -9075,11 +9131,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -9091,13 +9147,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="25">
         <v>5</v>
@@ -9105,11 +9161,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -9121,13 +9177,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="38" t="s">
-        <v>110</v>
-      </c>
       <c r="D13" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" s="39">
         <v>5</v>
@@ -9135,11 +9191,11 @@
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I13" s="38"/>
       <c r="J13" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -9151,13 +9207,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" s="3">
         <v>10</v>
@@ -9165,11 +9221,11 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -9448,7 +9504,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -9462,7 +9518,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:J16"/>
+      <selection activeCell="H11" sqref="G11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9508,7 +9564,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -9530,7 +9586,7 @@
         <v>73</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -9586,20 +9642,18 @@
         <v>81</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
@@ -9612,27 +9666,23 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>89</v>
-      </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -9644,13 +9694,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -9658,11 +9708,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -9674,13 +9724,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="3">
         <v>10</v>
@@ -9688,7 +9738,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -9702,13 +9752,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14" s="3">
         <v>50</v>
@@ -9728,13 +9778,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E15" s="3">
         <v>30</v>
@@ -9754,13 +9804,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>301</v>
-      </c>
       <c r="D16" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" s="24">
         <v>5</v>
@@ -10013,7 +10063,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -10027,7 +10077,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10073,7 +10123,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -10086,7 +10136,9 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
@@ -10098,7 +10150,9 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7">
+        <v>44728</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -10147,20 +10201,18 @@
         <v>81</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
@@ -10173,13 +10225,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="3">
         <v>5</v>
@@ -10187,11 +10239,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -10203,27 +10255,23 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>89</v>
-      </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -10235,13 +10283,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="3">
         <v>30</v>
@@ -10249,7 +10297,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -10263,13 +10311,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E14" s="40">
         <v>3</v>
@@ -10277,7 +10325,7 @@
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
@@ -10558,7 +10606,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -10572,7 +10620,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:I12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10618,7 +10666,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -10638,7 +10686,7 @@
         <v>73</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -10692,20 +10740,18 @@
         <v>81</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
@@ -10718,13 +10764,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="25">
         <v>5</v>
@@ -10732,11 +10778,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -10748,13 +10794,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
@@ -10762,7 +10808,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -10776,13 +10822,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" s="3">
         <v>10</v>
@@ -10802,13 +10848,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" s="3">
         <v>10</v>
@@ -11095,7 +11141,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -11155,7 +11201,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -11175,7 +11221,7 @@
         <v>73</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -11226,22 +11272,22 @@
         <v>81</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -11255,13 +11301,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="3">
         <v>5</v>
@@ -11269,11 +11315,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -11285,13 +11331,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="3">
         <v>5</v>
@@ -11299,11 +11345,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -11315,13 +11361,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="3">
         <v>3</v>
@@ -11329,7 +11375,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -11628,7 +11674,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -11642,7 +11688,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11688,7 +11734,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -11701,7 +11747,9 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
@@ -11713,7 +11761,9 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7">
+        <v>44728</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -11762,20 +11812,18 @@
         <v>81</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
@@ -11788,27 +11836,23 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="D11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>89</v>
-      </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -11820,13 +11864,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="3">
         <v>5</v>
@@ -11834,11 +11878,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -11850,13 +11894,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="3">
         <v>40</v>
@@ -11864,7 +11908,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -12163,7 +12207,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -12173,9 +12217,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12293,19 +12340,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3641A4D-BC7B-4C32-B537-86018FD429E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0F5BE5A-C9C5-465A-B2D5-E28B5DEBB874}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12327,9 +12370,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0F5BE5A-C9C5-465A-B2D5-E28B5DEBB874}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3641A4D-BC7B-4C32-B537-86018FD429E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/04_DB定義書_B2_0616_ver3.xlsx
+++ b/doc/04_DB定義書_B2_0616_ver3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39B334B1-3C2D-4987-8958-7B947FD6034C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E472CD64-F694-4DBD-BC56-EBB5F38774DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="3300" windowWidth="7230" windowHeight="5490" tabRatio="865" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3510" yWindow="2415" windowWidth="7230" windowHeight="5490" tabRatio="865" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改定履歴" sheetId="20" r:id="rId1"/>
@@ -1240,9 +1240,6 @@
       <t>モクヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Today_targets</t>
   </si>
   <si>
     <t>Today_targets</t>
@@ -1394,9 +1391,6 @@
     <t>Mユーザテーブル</t>
   </si>
   <si>
-    <t>M_My資格テーブル</t>
-  </si>
-  <si>
     <t>メールアドレス</t>
   </si>
   <si>
@@ -1491,6 +1485,17 @@
   </si>
   <si>
     <t>過去問？○○って参考書がおすすめだよ</t>
+  </si>
+  <si>
+    <t>項目ページ</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_My資格テーブル</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2342,7 +2347,7 @@
         <v>263</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
@@ -2995,7 +3000,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -3481,8 +3486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCAD677-C280-4D12-BAB5-CD95C425CD25}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3522,7 +3527,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -3560,7 +3565,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -3667,7 +3672,7 @@
         <v>108</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>259</v>
@@ -3694,10 +3699,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>82</v>
@@ -3714,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -5635,8 +5640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9867D9-8B60-4C38-88D3-81795CF50081}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView topLeftCell="E8" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5670,14 +5675,14 @@
     </row>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -5703,7 +5708,7 @@
         <v>173</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="12" t="s">
@@ -5716,7 +5721,7 @@
         <v>175</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
@@ -5730,7 +5735,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>176</v>
@@ -5746,7 +5751,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>179</v>
@@ -5778,7 +5783,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>181</v>
@@ -5798,7 +5803,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>182</v>
@@ -5837,7 +5842,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="13"/>
@@ -5895,7 +5900,7 @@
         <v>179</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>186</v>
@@ -5907,7 +5912,7 @@
         <v>188</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -5927,7 +5932,7 @@
         <v>181</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>189</v>
@@ -5939,7 +5944,7 @@
         <v>191</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -5971,13 +5976,13 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="13"/>
       <c r="D13" s="9"/>
       <c r="G13" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="13"/>
@@ -6003,7 +6008,7 @@
         <v>192</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>175</v>
+        <v>319</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>131</v>
@@ -6116,7 +6121,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="43" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B18" s="44"/>
       <c r="C18" s="43"/>
@@ -6149,7 +6154,7 @@
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="13"/>
@@ -6180,13 +6185,13 @@
         <v>131</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>108</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -6213,13 +6218,13 @@
         <v>1</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>199</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -6246,13 +6251,13 @@
         <v>2</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>200</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -6273,13 +6278,13 @@
         <v>3</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>200</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -6381,7 +6386,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="43" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
@@ -6451,7 +6456,7 @@
         <v>199</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E30" s="43" t="b">
         <v>1</v>
@@ -6461,13 +6466,13 @@
         <v>1</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>199</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K30" s="18">
         <v>44562</v>
@@ -6490,7 +6495,7 @@
         <v>200</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E31" s="43" t="b">
         <v>1</v>
@@ -6500,13 +6505,13 @@
         <v>2</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>200</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K31" s="18">
         <v>44563</v>
@@ -6539,13 +6544,13 @@
         <v>3</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I32" s="13" t="s">
         <v>200</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K32" s="18">
         <v>44563</v>
@@ -6624,7 +6629,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -6632,7 +6637,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -6669,7 +6674,7 @@
         <v>108</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
@@ -6686,7 +6691,7 @@
         <v>212</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>213</v>
@@ -6697,10 +6702,10 @@
         <v>1</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J38" s="9">
         <v>2</v>
@@ -6731,10 +6736,10 @@
         <v>2</v>
       </c>
       <c r="H39" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="I39" s="9" t="s">
         <v>314</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>316</v>
       </c>
       <c r="J39" s="9">
         <v>1</v>
@@ -6765,10 +6770,10 @@
         <v>3</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J40" s="9">
         <v>1</v>
@@ -6799,10 +6804,10 @@
         <v>4</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J41" s="9">
         <v>0</v>
@@ -6914,7 +6919,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F46" s="17">
         <v>44718.413194444445</v>
@@ -6944,7 +6949,7 @@
         <v>2</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F47" s="17">
         <v>44718.454861111109</v>
@@ -8082,13 +8087,13 @@
         <v>276</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
@@ -8282,7 +8287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E5" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
@@ -8836,7 +8841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEEE51DD-EB79-4227-9BD2-6F58E73E31D2}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -9385,7 +9390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF181C2-D446-4670-AAB0-8A0469E289AC}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="H11" sqref="G11:H11"/>
     </sheetView>
   </sheetViews>
@@ -12085,9 +12090,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12205,19 +12213,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3641A4D-BC7B-4C32-B537-86018FD429E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0F5BE5A-C9C5-465A-B2D5-E28B5DEBB874}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12239,9 +12243,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0F5BE5A-C9C5-465A-B2D5-E28B5DEBB874}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3641A4D-BC7B-4C32-B537-86018FD429E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>